--- a/Code_python/Data/USDCNY.xlsx
+++ b/Code_python/Data/USDCNY.xlsx
@@ -56207,7 +56207,7 @@
         <v>5074</v>
       </c>
       <c r="B5076">
-        <v>6.583399772644043</v>
+        <v>6.582399845123291</v>
       </c>
     </row>
   </sheetData>
